--- a/Experiment - testing, find bugs.xlsx
+++ b/Experiment - testing, find bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mohit\Study Material\SEPM\Software-Engineering-Project-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4D432D-C20E-4396-962A-0AC7171B38EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A251E93F-205C-4973-83F4-53FA90FB220A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92F3D8D8-0965-4A2F-B8FD-6B53C8FF3365}"/>
   </bookViews>
@@ -530,16 +530,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A3F365-232D-4ED7-8C7F-719C167ED213}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
     <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="5" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
